--- a/other/input/AQWMS/analysis_code_matching_table.xlsx
+++ b/other/input/AQWMS/analysis_code_matching_table.xlsx
@@ -121,9 +121,6 @@
     <t>AQWMS Analysis ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -151,7 +148,10 @@
     <t>?</t>
   </si>
   <si>
-    <t>Unsure</t>
+    <t>AQWMS Name</t>
+  </si>
+  <si>
+    <t>Total Nitrate/Nitrite-N</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -557,10 +557,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -571,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,10 +593,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,10 +604,10 @@
         <v>200.7</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/other/input/AQWMS/analysis_code_matching_table.xlsx
+++ b/other/input/AQWMS/analysis_code_matching_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22230" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -96,12 +105,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Comments from Sarah Apsens 2/9/2022</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Confirmed with Aleexandra Lambe (nee Daniel) of SGS on 2/9/2022</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Confirmed with Aleexandra Lambe (nee Daniel) of SGS on 2/9/2022</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Confirmed with Aleexandra Lambe (nee Daniel) of SGS on 2/9/2022</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>SGS Analysis Code</t>
   </si>
@@ -118,9 +223,6 @@
     <t xml:space="preserve">SW8260D        </t>
   </si>
   <si>
-    <t>AQWMS Analysis ID</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -130,9 +232,6 @@
     <t>Metals in Water by ICP-AES</t>
   </si>
   <si>
-    <t>BTEX</t>
-  </si>
-  <si>
     <t>200.8</t>
   </si>
   <si>
@@ -145,20 +244,41 @@
     <t>4500 P E ~ Phosphorus in Water by Colorimetry- Ascorbic Acid Method</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>AQWMS Name</t>
-  </si>
-  <si>
-    <t>Total Nitrate/Nitrite-N</t>
+    <t>4500-NO3(F)</t>
+  </si>
+  <si>
+    <t>4500 NO3 F  ~ Nitrate in Water- Automated Cadmium Reduction</t>
+  </si>
+  <si>
+    <t>Confirm with SGS. There are similar methods using different redox agents</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>I think this is correct, but check with SGS. There's a 4500-P-B method too</t>
+  </si>
+  <si>
+    <t>EPA Analysis ID</t>
+  </si>
+  <si>
+    <t>EPA Name</t>
+  </si>
+  <si>
+    <t>8260D</t>
+  </si>
+  <si>
+    <t>8260 D ~ Volatile Organic Compounds by GC/MS</t>
+  </si>
+  <si>
+    <t>verify with with SGS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +324,25 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,6 +383,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +674,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +682,7 @@
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -543,38 +690,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,21 +732,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,16 +760,20 @@
         <v>200.7</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
